--- a/biology/Médecine/Francis-Marius_Messerli/Francis-Marius_Messerli.xlsx
+++ b/biology/Médecine/Francis-Marius_Messerli/Francis-Marius_Messerli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francis-Marius Messerli, né le 25 juin 1888 à Lausanne où il est mort le 16 mars 1975[1], est un médecin et sportif vaudois fondateur du Comité olympique suisse en 1912.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis-Marius Messerli, né le 25 juin 1888 à Lausanne où il est mort le 16 mars 1975, est un médecin et sportif vaudois fondateur du Comité olympique suisse en 1912.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Messerli étudie la médecine et occupe de 1917 à 1954 les fonctions de médecin-chef du service d'hygiène de la ville de Lausanne ; parallèlement il enseigne à la faculté de médecine de l'Université de Lausanne.
 Sportif accompli, Francis Messerli est encore étudiant en médecine lorsqu'il rencontre Pierre de Coubertin alors que ce dernier visite un gymnase lausannois en 1908. Il fonde le Comité olympique suisse en 1912, et en est le secrétaire jusqu'en 1937. Chef de mission lors de plusieurs Jeux olympiques entre 1920 et 1936, directeur de l'Institut olympique de Lausanne et du Bureau international de pédagogie sportive (1937), il est l'exécuteur testamentaire de Pierre de Coubertin. 
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mensurations corporelles: observations des variations de la résistance individuelle Geneux &amp; Amstutz, 1916 ;
 Héliothérapie et pigmentation en collaboration avec Lucien Jeanneret, Georg, 1917 ;
@@ -585,7 +601,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Francis-Marius Messerli est vice-président de l'Union générale des Rhodaniens et officier de la Légion d'honneur.
 </t>
